--- a/Estados Financieros/Balance general/Cartón y papel/BG_800138131.xlsx
+++ b/Estados Financieros/Balance general/Cartón y papel/BG_800138131.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\BG Carton y papel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarenLorenaGarciaHer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF05EF-AFC2-481A-9890-866017954751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>BALANCE GENERAL</t>
   </si>
@@ -312,15 +313,12 @@
   </si>
   <si>
     <t>TOTAL PASIVO Y PATRIMONIO</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,11 +873,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:CU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,8 +1194,8 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>96</v>
+      <c r="G2" s="6">
+        <v>0</v>
       </c>
       <c r="H2" s="7">
         <v>228.97</v>
@@ -1208,11 +1206,11 @@
       <c r="J2" s="8">
         <v>1409.25</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>96</v>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
       </c>
       <c r="M2" s="6">
         <v>7.08</v>
@@ -1229,8 +1227,8 @@
       <c r="Q2" s="6">
         <v>615.79999999999995</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>96</v>
+      <c r="R2" s="5">
+        <v>0</v>
       </c>
       <c r="S2" s="6">
         <v>0</v>
@@ -1241,20 +1239,20 @@
       <c r="U2" s="9">
         <v>2266.16</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>96</v>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
       </c>
       <c r="AA2" s="10">
         <v>1504.15</v>
@@ -1262,17 +1260,17 @@
       <c r="AB2" s="9">
         <v>1504.15</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>96</v>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
       </c>
       <c r="AG2" s="11">
         <v>5422.2</v>
@@ -1319,14 +1317,14 @@
       <c r="AU2" s="6">
         <v>0</v>
       </c>
-      <c r="AV2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>96</v>
+      <c r="AV2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>0</v>
       </c>
       <c r="AY2" s="11">
         <v>3304.4</v>
@@ -1343,29 +1341,29 @@
       <c r="BC2" s="6">
         <v>0</v>
       </c>
-      <c r="BD2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>96</v>
+      <c r="BD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>0</v>
       </c>
       <c r="BI2" s="6">
         <v>0</v>
       </c>
-      <c r="BJ2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>96</v>
+      <c r="BJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="6">
+        <v>0</v>
       </c>
       <c r="BL2" s="7">
         <v>0</v>
@@ -1379,11 +1377,11 @@
       <c r="BO2" s="7">
         <v>0</v>
       </c>
-      <c r="BP2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>96</v>
+      <c r="BP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="6">
+        <v>0</v>
       </c>
       <c r="BR2" s="5">
         <v>28.89</v>
@@ -1391,8 +1389,8 @@
       <c r="BS2" s="7">
         <v>28.89</v>
       </c>
-      <c r="BT2" s="7" t="s">
-        <v>96</v>
+      <c r="BT2" s="7">
+        <v>0</v>
       </c>
       <c r="BU2" s="11">
         <v>5678.01</v>
@@ -1412,8 +1410,8 @@
       <c r="BZ2" s="5">
         <v>0</v>
       </c>
-      <c r="CA2" s="6" t="s">
-        <v>96</v>
+      <c r="CA2" s="6">
+        <v>0</v>
       </c>
       <c r="CB2" s="5">
         <v>0</v>
@@ -1421,8 +1419,8 @@
       <c r="CC2" s="6">
         <v>0</v>
       </c>
-      <c r="CD2" s="5" t="s">
-        <v>96</v>
+      <c r="CD2" s="5">
+        <v>0</v>
       </c>
       <c r="CE2" s="13">
         <v>0</v>
@@ -1439,8 +1437,8 @@
       <c r="CI2" s="6">
         <v>0</v>
       </c>
-      <c r="CJ2" s="5" t="s">
-        <v>96</v>
+      <c r="CJ2" s="5">
+        <v>0</v>
       </c>
       <c r="CK2" s="9">
         <v>4800</v>
@@ -1454,17 +1452,17 @@
       <c r="CN2" s="7">
         <v>0</v>
       </c>
-      <c r="CO2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP2" s="7" t="s">
-        <v>96</v>
+      <c r="CO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="7">
+        <v>0</v>
       </c>
       <c r="CQ2" s="9">
-        <v>-2192.21</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>96</v>
+        <v>2192.21</v>
+      </c>
+      <c r="CR2" s="7">
+        <v>0</v>
       </c>
       <c r="CS2" s="6">
         <v>0</v>
@@ -1483,17 +1481,17 @@
       <c r="C3" s="4">
         <v>800138131</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>164.05</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>96</v>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
       </c>
       <c r="H3" s="7">
         <v>164.05</v>
@@ -1504,20 +1502,20 @@
       <c r="J3" s="8">
         <v>1317.92</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>96</v>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
       </c>
       <c r="N3" s="9">
         <v>1317.92</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>96</v>
+      <c r="O3" s="6">
+        <v>0</v>
       </c>
       <c r="P3" s="5">
         <v>0</v>
@@ -1525,8 +1523,8 @@
       <c r="Q3" s="6">
         <v>713.23</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>96</v>
+      <c r="R3" s="5">
+        <v>0</v>
       </c>
       <c r="S3" s="6">
         <v>0</v>
@@ -1537,20 +1535,20 @@
       <c r="U3" s="7">
         <v>754.3</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>96</v>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
       </c>
       <c r="AA3" s="6">
         <v>873.03</v>
@@ -1558,17 +1556,17 @@
       <c r="AB3" s="7">
         <v>873.03</v>
       </c>
-      <c r="AC3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>96</v>
+      <c r="AC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0</v>
       </c>
       <c r="AG3" s="11">
         <v>4512.3599999999997</v>
@@ -1615,14 +1613,14 @@
       <c r="AU3" s="6">
         <v>0</v>
       </c>
-      <c r="AV3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>96</v>
+      <c r="AV3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>0</v>
       </c>
       <c r="AY3" s="11">
         <v>3487.63</v>
@@ -1636,20 +1634,20 @@
       <c r="BB3" s="8">
         <v>1613.87</v>
       </c>
-      <c r="BC3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>96</v>
+      <c r="BC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="6">
+        <v>0</v>
       </c>
       <c r="BH3" s="5">
         <v>0</v>
@@ -1657,8 +1655,8 @@
       <c r="BI3" s="6">
         <v>0</v>
       </c>
-      <c r="BJ3" s="5" t="s">
-        <v>96</v>
+      <c r="BJ3" s="5">
+        <v>0</v>
       </c>
       <c r="BK3" s="6">
         <v>166.49</v>
@@ -1669,26 +1667,26 @@
       <c r="BM3" s="7">
         <v>232.13</v>
       </c>
-      <c r="BN3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT3" s="7" t="s">
-        <v>96</v>
+      <c r="BN3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="7">
+        <v>0</v>
       </c>
       <c r="BU3" s="11">
         <v>5380.91</v>
@@ -1705,11 +1703,11 @@
       <c r="BY3" s="6">
         <v>0</v>
       </c>
-      <c r="BZ3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>96</v>
+      <c r="BZ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="6">
+        <v>0</v>
       </c>
       <c r="CB3" s="5">
         <v>0</v>
@@ -1717,8 +1715,8 @@
       <c r="CC3" s="6">
         <v>0</v>
       </c>
-      <c r="CD3" s="5" t="s">
-        <v>96</v>
+      <c r="CD3" s="5">
+        <v>0</v>
       </c>
       <c r="CE3" s="13">
         <v>0</v>
@@ -1735,8 +1733,8 @@
       <c r="CI3" s="6">
         <v>0</v>
       </c>
-      <c r="CJ3" s="5" t="s">
-        <v>96</v>
+      <c r="CJ3" s="5">
+        <v>0</v>
       </c>
       <c r="CK3" s="9">
         <v>4800</v>
@@ -1750,17 +1748,17 @@
       <c r="CN3" s="7">
         <v>0</v>
       </c>
-      <c r="CO3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP3" s="7" t="s">
-        <v>96</v>
+      <c r="CO3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="7">
+        <v>0</v>
       </c>
       <c r="CQ3" s="9">
-        <v>-2621.72</v>
-      </c>
-      <c r="CR3" s="7" t="s">
-        <v>96</v>
+        <v>2621.72</v>
+      </c>
+      <c r="CR3" s="7">
+        <v>0</v>
       </c>
       <c r="CS3" s="6">
         <v>0</v>
@@ -1779,17 +1777,17 @@
       <c r="C4" s="4">
         <v>800138131</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>96</v>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4" s="6">
         <v>9.1199999999999992</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>96</v>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>9.1199999999999992</v>
@@ -1800,20 +1798,20 @@
       <c r="J4" s="5">
         <v>466.04</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>96</v>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <v>466.04</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>96</v>
+      <c r="O4" s="6">
+        <v>0</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -1821,8 +1819,8 @@
       <c r="Q4" s="6">
         <v>454.1</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>96</v>
+      <c r="R4" s="5">
+        <v>0</v>
       </c>
       <c r="S4" s="6">
         <v>0</v>
@@ -1833,20 +1831,20 @@
       <c r="U4" s="7">
         <v>502.04</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>96</v>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
       </c>
       <c r="AA4" s="6">
         <v>733.99</v>
@@ -1854,17 +1852,17 @@
       <c r="AB4" s="7">
         <v>733.99</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>96</v>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
       </c>
       <c r="AG4" s="11">
         <v>3085.4</v>
@@ -1911,14 +1909,14 @@
       <c r="AU4" s="6">
         <v>0</v>
       </c>
-      <c r="AV4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>96</v>
+      <c r="AV4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0</v>
       </c>
       <c r="AY4" s="11">
         <v>4149.91</v>
@@ -1932,20 +1930,20 @@
       <c r="BB4" s="8">
         <v>1352.09</v>
       </c>
-      <c r="BC4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>96</v>
+      <c r="BC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>0</v>
       </c>
       <c r="BH4" s="5">
         <v>0</v>
@@ -1953,8 +1951,8 @@
       <c r="BI4" s="6">
         <v>0</v>
       </c>
-      <c r="BJ4" s="5" t="s">
-        <v>96</v>
+      <c r="BJ4" s="5">
+        <v>0</v>
       </c>
       <c r="BK4" s="6">
         <v>117.8</v>
@@ -1965,26 +1963,26 @@
       <c r="BM4" s="7">
         <v>33.86</v>
       </c>
-      <c r="BN4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT4" s="7" t="s">
-        <v>96</v>
+      <c r="BN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="7">
+        <v>0</v>
       </c>
       <c r="BU4" s="11">
         <v>3577.92</v>
@@ -2001,11 +1999,11 @@
       <c r="BY4" s="6">
         <v>0</v>
       </c>
-      <c r="BZ4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>96</v>
+      <c r="BZ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="6">
+        <v>0</v>
       </c>
       <c r="CB4" s="5">
         <v>625.28</v>
@@ -2013,8 +2011,8 @@
       <c r="CC4" s="6">
         <v>0</v>
       </c>
-      <c r="CD4" s="5" t="s">
-        <v>96</v>
+      <c r="CD4" s="5">
+        <v>0</v>
       </c>
       <c r="CE4" s="11">
         <v>3169.14</v>
@@ -2031,8 +2029,8 @@
       <c r="CI4" s="6">
         <v>0</v>
       </c>
-      <c r="CJ4" s="5" t="s">
-        <v>96</v>
+      <c r="CJ4" s="5">
+        <v>0</v>
       </c>
       <c r="CK4" s="9">
         <v>2500</v>
@@ -2046,17 +2044,17 @@
       <c r="CN4" s="7">
         <v>0</v>
       </c>
-      <c r="CO4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP4" s="7" t="s">
-        <v>96</v>
+      <c r="CO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="7">
+        <v>0</v>
       </c>
       <c r="CQ4" s="9">
-        <v>-2452.5500000000002</v>
-      </c>
-      <c r="CR4" s="7" t="s">
-        <v>96</v>
+        <v>2452.5500000000002</v>
+      </c>
+      <c r="CR4" s="7">
+        <v>0</v>
       </c>
       <c r="CS4" s="6">
         <v>0</v>
@@ -2081,11 +2079,11 @@
       <c r="E5" s="6">
         <v>0.93</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>96</v>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
       </c>
       <c r="H5" s="7">
         <v>4.83</v>
@@ -2096,14 +2094,14 @@
       <c r="J5" s="5">
         <v>696.07</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>96</v>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <v>696.07</v>
@@ -2117,8 +2115,8 @@
       <c r="Q5" s="6">
         <v>374.01</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>96</v>
+      <c r="R5" s="5">
+        <v>0</v>
       </c>
       <c r="S5" s="6">
         <v>0</v>
@@ -2129,20 +2127,20 @@
       <c r="U5" s="7">
         <v>850.09</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>96</v>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
       </c>
       <c r="AA5" s="6">
         <v>586.52</v>
@@ -2150,17 +2148,17 @@
       <c r="AB5" s="7">
         <v>586.52</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>96</v>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
       </c>
       <c r="AG5" s="11">
         <v>2137.65</v>
@@ -2207,14 +2205,14 @@
       <c r="AU5" s="6">
         <v>1.35</v>
       </c>
-      <c r="AV5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>96</v>
+      <c r="AV5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>0</v>
       </c>
       <c r="AY5" s="11">
         <v>3241.13</v>
@@ -2231,17 +2229,17 @@
       <c r="BC5" s="6">
         <v>129.05000000000001</v>
       </c>
-      <c r="BD5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>96</v>
+      <c r="BD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="6">
+        <v>0</v>
       </c>
       <c r="BH5" s="5">
         <v>0</v>
@@ -2249,8 +2247,8 @@
       <c r="BI5" s="6">
         <v>0</v>
       </c>
-      <c r="BJ5" s="5" t="s">
-        <v>96</v>
+      <c r="BJ5" s="5">
+        <v>0</v>
       </c>
       <c r="BK5" s="6">
         <v>0</v>
@@ -2261,26 +2259,26 @@
       <c r="BM5" s="7">
         <v>441.39</v>
       </c>
-      <c r="BN5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT5" s="7" t="s">
-        <v>96</v>
+      <c r="BN5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="7">
+        <v>0</v>
       </c>
       <c r="BU5" s="11">
         <v>2093.38</v>
@@ -2291,8 +2289,8 @@
       <c r="BW5" s="6">
         <v>0</v>
       </c>
-      <c r="BX5" s="5" t="s">
-        <v>96</v>
+      <c r="BX5" s="5">
+        <v>0</v>
       </c>
       <c r="BY5" s="6">
         <v>0</v>
@@ -2309,8 +2307,8 @@
       <c r="CC5" s="6">
         <v>0</v>
       </c>
-      <c r="CD5" s="5" t="s">
-        <v>96</v>
+      <c r="CD5" s="5">
+        <v>0</v>
       </c>
       <c r="CE5" s="11">
         <v>2515.62</v>
@@ -2327,8 +2325,8 @@
       <c r="CI5" s="6">
         <v>0</v>
       </c>
-      <c r="CJ5" s="5" t="s">
-        <v>96</v>
+      <c r="CJ5" s="5">
+        <v>0</v>
       </c>
       <c r="CK5" s="9">
         <v>2500</v>
@@ -2342,17 +2340,17 @@
       <c r="CN5" s="7">
         <v>0</v>
       </c>
-      <c r="CO5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP5" s="7" t="s">
-        <v>96</v>
+      <c r="CO5" s="7">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="7">
+        <v>0</v>
       </c>
       <c r="CQ5" s="9">
-        <v>-2122.62</v>
-      </c>
-      <c r="CR5" s="7" t="s">
-        <v>96</v>
+        <v>2122.62</v>
+      </c>
+      <c r="CR5" s="7">
+        <v>0</v>
       </c>
       <c r="CS5" s="6">
         <v>0</v>
@@ -2371,17 +2369,17 @@
       <c r="C6" s="4">
         <v>800138131</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>96</v>
+      <c r="D6" s="5">
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <v>5.53</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>96</v>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <v>5.53</v>
@@ -2392,20 +2390,20 @@
       <c r="J6" s="8">
         <v>1174.3599999999999</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>96</v>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
       </c>
       <c r="N6" s="9">
         <v>1174.3599999999999</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>96</v>
+      <c r="O6" s="6">
+        <v>0</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -2413,8 +2411,8 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>96</v>
+      <c r="R6" s="5">
+        <v>0</v>
       </c>
       <c r="S6" s="6">
         <v>0</v>
@@ -2425,20 +2423,20 @@
       <c r="U6" s="7">
         <v>0</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>96</v>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
       </c>
       <c r="AA6" s="6">
         <v>462.19</v>
@@ -2446,17 +2444,17 @@
       <c r="AB6" s="7">
         <v>462.19</v>
       </c>
-      <c r="AC6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>96</v>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
       </c>
       <c r="AG6" s="11">
         <v>1642.08</v>
@@ -2503,14 +2501,14 @@
       <c r="AU6" s="6">
         <v>11.3</v>
       </c>
-      <c r="AV6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>96</v>
+      <c r="AV6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>0</v>
       </c>
       <c r="AY6" s="11">
         <v>3146.77</v>
@@ -2524,20 +2522,20 @@
       <c r="BB6" s="8">
         <v>1098.26</v>
       </c>
-      <c r="BC6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>96</v>
+      <c r="BC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>0</v>
       </c>
       <c r="BH6" s="5">
         <v>0</v>
@@ -2545,8 +2543,8 @@
       <c r="BI6" s="6">
         <v>0</v>
       </c>
-      <c r="BJ6" s="5" t="s">
-        <v>96</v>
+      <c r="BJ6" s="5">
+        <v>0</v>
       </c>
       <c r="BK6" s="6">
         <v>106.66</v>
@@ -2557,26 +2555,26 @@
       <c r="BM6" s="7">
         <v>536.72</v>
       </c>
-      <c r="BN6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BS6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT6" s="7" t="s">
-        <v>96</v>
+      <c r="BN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="7">
+        <v>0</v>
       </c>
       <c r="BU6" s="11">
         <v>2051.08</v>
@@ -2593,11 +2591,11 @@
       <c r="BY6" s="6">
         <v>0</v>
       </c>
-      <c r="BZ6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CA6" s="6" t="s">
-        <v>96</v>
+      <c r="BZ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="6">
+        <v>0</v>
       </c>
       <c r="CB6" s="5">
         <v>0.99</v>
@@ -2605,8 +2603,8 @@
       <c r="CC6" s="6">
         <v>0</v>
       </c>
-      <c r="CD6" s="5" t="s">
-        <v>96</v>
+      <c r="CD6" s="5">
+        <v>0</v>
       </c>
       <c r="CE6" s="11">
         <v>3550.61</v>
@@ -2623,8 +2621,8 @@
       <c r="CI6" s="6">
         <v>0</v>
       </c>
-      <c r="CJ6" s="5" t="s">
-        <v>96</v>
+      <c r="CJ6" s="5">
+        <v>0</v>
       </c>
       <c r="CK6" s="9">
         <v>1000</v>
@@ -2638,23 +2636,23 @@
       <c r="CN6" s="7">
         <v>249.48</v>
       </c>
-      <c r="CO6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="CP6" s="7" t="s">
-        <v>96</v>
+      <c r="CO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="7">
+        <v>0</v>
       </c>
       <c r="CQ6" s="9">
-        <v>-2205.2399999999998</v>
-      </c>
-      <c r="CR6" s="7" t="s">
-        <v>96</v>
+        <v>2205.2399999999998</v>
+      </c>
+      <c r="CR6" s="7">
+        <v>0</v>
       </c>
       <c r="CS6" s="6">
         <v>0</v>
       </c>
       <c r="CT6" s="15">
-        <v>-812.84</v>
+        <v>812.84</v>
       </c>
       <c r="CU6" s="14">
         <v>4788.84</v>
@@ -2712,8 +2710,8 @@
       <c r="R7" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>96</v>
+      <c r="S7" s="6">
+        <v>0</v>
       </c>
       <c r="T7" s="5">
         <v>194.23</v>
@@ -2760,11 +2758,11 @@
       <c r="AH7" s="5">
         <v>0</v>
       </c>
-      <c r="AI7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>96</v>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
       </c>
       <c r="AK7" s="6">
         <v>0</v>
@@ -2772,11 +2770,11 @@
       <c r="AL7" s="8">
         <v>2181.35</v>
       </c>
-      <c r="AM7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN7" s="5" t="s">
-        <v>96</v>
+      <c r="AM7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0</v>
       </c>
       <c r="AO7" s="6">
         <v>0</v>
@@ -2784,17 +2782,17 @@
       <c r="AP7" s="5">
         <v>0</v>
       </c>
-      <c r="AQ7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT7" s="5" t="s">
-        <v>96</v>
+      <c r="AQ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>0</v>
       </c>
       <c r="AU7" s="6">
         <v>0</v>
@@ -2838,8 +2836,8 @@
       <c r="BH7" s="5">
         <v>22.28</v>
       </c>
-      <c r="BI7" s="6" t="s">
-        <v>96</v>
+      <c r="BI7" s="6">
+        <v>0</v>
       </c>
       <c r="BJ7" s="5">
         <v>0</v>
@@ -2913,11 +2911,11 @@
       <c r="CG7" s="10">
         <v>1000</v>
       </c>
-      <c r="CH7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI7" s="6" t="s">
-        <v>96</v>
+      <c r="CH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="6">
+        <v>0</v>
       </c>
       <c r="CJ7" s="5">
         <v>0</v>
@@ -2938,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="CP7" s="7">
-        <v>-195.48</v>
+        <v>195.48</v>
       </c>
       <c r="CQ7" s="9">
-        <v>-2793.51</v>
+        <v>2793.51</v>
       </c>
       <c r="CR7" s="9">
         <v>1030.08</v>
       </c>
-      <c r="CS7" s="6" t="s">
-        <v>96</v>
+      <c r="CS7" s="6">
+        <v>0</v>
       </c>
       <c r="CT7" s="15">
-        <v>-566.51</v>
+        <v>566.51</v>
       </c>
       <c r="CU7" s="14">
         <v>5326.07</v>
@@ -3008,8 +3006,8 @@
       <c r="R8" s="5">
         <v>0.51</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>96</v>
+      <c r="S8" s="6">
+        <v>0</v>
       </c>
       <c r="T8" s="5">
         <v>166.21</v>
@@ -3056,11 +3054,11 @@
       <c r="AH8" s="5">
         <v>0</v>
       </c>
-      <c r="AI8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>96</v>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0</v>
       </c>
       <c r="AK8" s="6">
         <v>0</v>
@@ -3068,11 +3066,11 @@
       <c r="AL8" s="8">
         <v>3334.97</v>
       </c>
-      <c r="AM8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>96</v>
+      <c r="AM8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0</v>
       </c>
       <c r="AO8" s="6">
         <v>0</v>
@@ -3080,17 +3078,17 @@
       <c r="AP8" s="5">
         <v>0</v>
       </c>
-      <c r="AQ8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>96</v>
+      <c r="AQ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>0</v>
       </c>
       <c r="AU8" s="6">
         <v>0</v>
@@ -3134,8 +3132,8 @@
       <c r="BH8" s="5">
         <v>18.96</v>
       </c>
-      <c r="BI8" s="6" t="s">
-        <v>96</v>
+      <c r="BI8" s="6">
+        <v>0</v>
       </c>
       <c r="BJ8" s="5">
         <v>13.5</v>
@@ -3209,11 +3207,11 @@
       <c r="CG8" s="10">
         <v>1000</v>
       </c>
-      <c r="CH8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI8" s="6" t="s">
-        <v>96</v>
+      <c r="CH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="6">
+        <v>0</v>
       </c>
       <c r="CJ8" s="5">
         <v>0</v>
@@ -3234,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="CP8" s="7">
-        <v>-631.62</v>
+        <v>631.62</v>
       </c>
       <c r="CQ8" s="9">
-        <v>-2161.89</v>
+        <v>2161.89</v>
       </c>
       <c r="CR8" s="9">
         <v>3604.57</v>
       </c>
-      <c r="CS8" s="6" t="s">
-        <v>96</v>
+      <c r="CS8" s="6">
+        <v>0</v>
       </c>
       <c r="CT8" s="12">
         <v>2203.46</v>
@@ -3304,8 +3302,8 @@
       <c r="R9" s="5">
         <v>0.88</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>96</v>
+      <c r="S9" s="6">
+        <v>0</v>
       </c>
       <c r="T9" s="5">
         <v>304.04000000000002</v>
@@ -3352,11 +3350,11 @@
       <c r="AH9" s="5">
         <v>0</v>
       </c>
-      <c r="AI9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>96</v>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0</v>
       </c>
       <c r="AK9" s="6">
         <v>0</v>
@@ -3364,11 +3362,11 @@
       <c r="AL9" s="8">
         <v>3442.85</v>
       </c>
-      <c r="AM9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN9" s="5" t="s">
-        <v>96</v>
+      <c r="AM9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>0</v>
       </c>
       <c r="AO9" s="6">
         <v>0</v>
@@ -3376,17 +3374,17 @@
       <c r="AP9" s="5">
         <v>0</v>
       </c>
-      <c r="AQ9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT9" s="5" t="s">
-        <v>96</v>
+      <c r="AQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>0</v>
       </c>
       <c r="AU9" s="6">
         <v>0</v>
@@ -3430,8 +3428,8 @@
       <c r="BH9" s="5">
         <v>8.0399999999999991</v>
       </c>
-      <c r="BI9" s="6" t="s">
-        <v>96</v>
+      <c r="BI9" s="6">
+        <v>0</v>
       </c>
       <c r="BJ9" s="5">
         <v>12.63</v>
@@ -3505,11 +3503,11 @@
       <c r="CG9" s="10">
         <v>1000</v>
       </c>
-      <c r="CH9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI9" s="6" t="s">
-        <v>96</v>
+      <c r="CH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="6">
+        <v>0</v>
       </c>
       <c r="CJ9" s="5">
         <v>0</v>
@@ -3530,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="CP9" s="9">
-        <v>-1257.0899999999999</v>
+        <v>1257.0899999999999</v>
       </c>
       <c r="CQ9" s="7">
-        <v>-904.79</v>
+        <v>904.79</v>
       </c>
       <c r="CR9" s="9">
         <v>4629.25</v>
       </c>
-      <c r="CS9" s="6" t="s">
-        <v>96</v>
+      <c r="CS9" s="6">
+        <v>0</v>
       </c>
       <c r="CT9" s="12">
         <v>3859.77</v>
@@ -3600,8 +3598,8 @@
       <c r="R10" s="5">
         <v>13.91</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>96</v>
+      <c r="S10" s="6">
+        <v>0</v>
       </c>
       <c r="T10" s="5">
         <v>907.08</v>
@@ -3648,11 +3646,11 @@
       <c r="AH10" s="5">
         <v>0</v>
       </c>
-      <c r="AI10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>96</v>
+      <c r="AI10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0</v>
       </c>
       <c r="AK10" s="6">
         <v>0</v>
@@ -3660,11 +3658,11 @@
       <c r="AL10" s="8">
         <v>3508.55</v>
       </c>
-      <c r="AM10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN10" s="5" t="s">
-        <v>96</v>
+      <c r="AM10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>0</v>
       </c>
       <c r="AO10" s="6">
         <v>0</v>
@@ -3672,17 +3670,17 @@
       <c r="AP10" s="5">
         <v>1.47</v>
       </c>
-      <c r="AQ10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT10" s="5" t="s">
-        <v>96</v>
+      <c r="AQ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>0</v>
       </c>
       <c r="AU10" s="6">
         <v>0</v>
@@ -3726,8 +3724,8 @@
       <c r="BH10" s="5">
         <v>43.03</v>
       </c>
-      <c r="BI10" s="6" t="s">
-        <v>96</v>
+      <c r="BI10" s="6">
+        <v>0</v>
       </c>
       <c r="BJ10" s="5">
         <v>0</v>
@@ -3801,11 +3799,11 @@
       <c r="CG10" s="6">
         <v>600</v>
       </c>
-      <c r="CH10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI10" s="6" t="s">
-        <v>96</v>
+      <c r="CH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="6">
+        <v>0</v>
       </c>
       <c r="CJ10" s="5">
         <v>0</v>
@@ -3826,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="CP10" s="9">
-        <v>-1208.58</v>
+        <v>1208.58</v>
       </c>
       <c r="CQ10" s="7">
         <v>303.79000000000002</v>
@@ -3834,8 +3832,8 @@
       <c r="CR10" s="9">
         <v>4869.58</v>
       </c>
-      <c r="CS10" s="6" t="s">
-        <v>96</v>
+      <c r="CS10" s="6">
+        <v>0</v>
       </c>
       <c r="CT10" s="12">
         <v>4957.1899999999996</v>
@@ -3896,8 +3894,8 @@
       <c r="R11" s="5">
         <v>39.85</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>96</v>
+      <c r="S11" s="6">
+        <v>0</v>
       </c>
       <c r="T11" s="5">
         <v>52.36</v>
@@ -3944,11 +3942,11 @@
       <c r="AH11" s="5">
         <v>0</v>
       </c>
-      <c r="AI11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>96</v>
+      <c r="AI11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>0</v>
       </c>
       <c r="AK11" s="6">
         <v>0</v>
@@ -3956,11 +3954,11 @@
       <c r="AL11" s="8">
         <v>3619.4</v>
       </c>
-      <c r="AM11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN11" s="5" t="s">
-        <v>96</v>
+      <c r="AM11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>0</v>
       </c>
       <c r="AO11" s="6">
         <v>0</v>
@@ -3968,17 +3966,17 @@
       <c r="AP11" s="5">
         <v>8.57</v>
       </c>
-      <c r="AQ11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT11" s="5" t="s">
-        <v>96</v>
+      <c r="AQ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>0</v>
       </c>
       <c r="AU11" s="6">
         <v>0</v>
@@ -4022,8 +4020,8 @@
       <c r="BH11" s="5">
         <v>53.4</v>
       </c>
-      <c r="BI11" s="6" t="s">
-        <v>96</v>
+      <c r="BI11" s="6">
+        <v>0</v>
       </c>
       <c r="BJ11" s="5">
         <v>0</v>
@@ -4097,11 +4095,11 @@
       <c r="CG11" s="6">
         <v>600</v>
       </c>
-      <c r="CH11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI11" s="6" t="s">
-        <v>96</v>
+      <c r="CH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="6">
+        <v>0</v>
       </c>
       <c r="CJ11" s="5">
         <v>0</v>
@@ -4122,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="CP11" s="7">
-        <v>-540.77</v>
+        <v>540.77</v>
       </c>
       <c r="CQ11" s="7">
         <v>844.56</v>
@@ -4130,8 +4128,8 @@
       <c r="CR11" s="9">
         <v>6652.71</v>
       </c>
-      <c r="CS11" s="6" t="s">
-        <v>96</v>
+      <c r="CS11" s="6">
+        <v>0</v>
       </c>
       <c r="CT11" s="12">
         <v>7953.51</v>
@@ -4192,8 +4190,8 @@
       <c r="R12" s="5">
         <v>44.29</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>96</v>
+      <c r="S12" s="6">
+        <v>0</v>
       </c>
       <c r="T12" s="5">
         <v>854.17</v>
@@ -4240,11 +4238,11 @@
       <c r="AH12" s="5">
         <v>0</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>96</v>
+      <c r="AI12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>0</v>
       </c>
       <c r="AK12" s="6">
         <v>0</v>
@@ -4252,11 +4250,11 @@
       <c r="AL12" s="8">
         <v>3588.12</v>
       </c>
-      <c r="AM12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN12" s="5" t="s">
-        <v>96</v>
+      <c r="AM12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>0</v>
       </c>
       <c r="AO12" s="6">
         <v>0</v>
@@ -4264,17 +4262,17 @@
       <c r="AP12" s="5">
         <v>9.4700000000000006</v>
       </c>
-      <c r="AQ12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT12" s="5" t="s">
-        <v>96</v>
+      <c r="AQ12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>0</v>
       </c>
       <c r="AU12" s="6">
         <v>0</v>
@@ -4318,8 +4316,8 @@
       <c r="BH12" s="5">
         <v>28.16</v>
       </c>
-      <c r="BI12" s="6" t="s">
-        <v>96</v>
+      <c r="BI12" s="6">
+        <v>0</v>
       </c>
       <c r="BJ12" s="5">
         <v>12.68</v>
@@ -4393,11 +4391,11 @@
       <c r="CG12" s="6">
         <v>600</v>
       </c>
-      <c r="CH12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI12" s="6" t="s">
-        <v>96</v>
+      <c r="CH12" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="6">
+        <v>0</v>
       </c>
       <c r="CJ12" s="5">
         <v>0</v>
@@ -4426,8 +4424,8 @@
       <c r="CR12" s="9">
         <v>6123.48</v>
       </c>
-      <c r="CS12" s="6" t="s">
-        <v>96</v>
+      <c r="CS12" s="6">
+        <v>0</v>
       </c>
       <c r="CT12" s="12">
         <v>7969.67</v>
@@ -4488,8 +4486,8 @@
       <c r="R13" s="5">
         <v>12.85</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>96</v>
+      <c r="S13" s="6">
+        <v>0</v>
       </c>
       <c r="T13" s="5">
         <v>11.47</v>
@@ -4536,11 +4534,11 @@
       <c r="AH13" s="5">
         <v>0</v>
       </c>
-      <c r="AI13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>96</v>
+      <c r="AI13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>0</v>
       </c>
       <c r="AK13" s="6">
         <v>0</v>
@@ -4548,11 +4546,11 @@
       <c r="AL13" s="8">
         <v>2850.44</v>
       </c>
-      <c r="AM13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN13" s="5" t="s">
-        <v>96</v>
+      <c r="AM13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>0</v>
       </c>
       <c r="AO13" s="6">
         <v>0</v>
@@ -4560,17 +4558,17 @@
       <c r="AP13" s="5">
         <v>17.89</v>
       </c>
-      <c r="AQ13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT13" s="5" t="s">
-        <v>96</v>
+      <c r="AQ13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>0</v>
       </c>
       <c r="AU13" s="6">
         <v>0</v>
@@ -4614,8 +4612,8 @@
       <c r="BH13" s="5">
         <v>31.63</v>
       </c>
-      <c r="BI13" s="6" t="s">
-        <v>96</v>
+      <c r="BI13" s="6">
+        <v>0</v>
       </c>
       <c r="BJ13" s="5">
         <v>18.29</v>
@@ -4689,11 +4687,11 @@
       <c r="CG13" s="6">
         <v>600</v>
       </c>
-      <c r="CH13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI13" s="6" t="s">
-        <v>96</v>
+      <c r="CH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="6">
+        <v>0</v>
       </c>
       <c r="CJ13" s="5">
         <v>0</v>
@@ -4722,8 +4720,8 @@
       <c r="CR13" s="9">
         <v>5707.95</v>
       </c>
-      <c r="CS13" s="6" t="s">
-        <v>96</v>
+      <c r="CS13" s="6">
+        <v>0</v>
       </c>
       <c r="CT13" s="12">
         <v>7354.9</v>
@@ -4784,8 +4782,8 @@
       <c r="R14" s="5">
         <v>6.1</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>96</v>
+      <c r="S14" s="6">
+        <v>0</v>
       </c>
       <c r="T14" s="5">
         <v>25.7</v>
@@ -4832,11 +4830,11 @@
       <c r="AH14" s="5">
         <v>0</v>
       </c>
-      <c r="AI14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>96</v>
+      <c r="AI14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>0</v>
       </c>
       <c r="AK14" s="6">
         <v>0</v>
@@ -4844,11 +4842,11 @@
       <c r="AL14" s="8">
         <v>2407.6799999999998</v>
       </c>
-      <c r="AM14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN14" s="5" t="s">
-        <v>96</v>
+      <c r="AM14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0</v>
       </c>
       <c r="AO14" s="6">
         <v>0</v>
@@ -4856,17 +4854,17 @@
       <c r="AP14" s="5">
         <v>8.26</v>
       </c>
-      <c r="AQ14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT14" s="5" t="s">
-        <v>96</v>
+      <c r="AQ14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>0</v>
       </c>
       <c r="AU14" s="6">
         <v>0</v>
@@ -4910,8 +4908,8 @@
       <c r="BH14" s="5">
         <v>45.38</v>
       </c>
-      <c r="BI14" s="6" t="s">
-        <v>96</v>
+      <c r="BI14" s="6">
+        <v>0</v>
       </c>
       <c r="BJ14" s="5">
         <v>11.44</v>
@@ -4985,11 +4983,11 @@
       <c r="CG14" s="6">
         <v>600</v>
       </c>
-      <c r="CH14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI14" s="6" t="s">
-        <v>96</v>
+      <c r="CH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="6">
+        <v>0</v>
       </c>
       <c r="CJ14" s="5">
         <v>0</v>
@@ -5018,8 +5016,8 @@
       <c r="CR14" s="9">
         <v>1315.1</v>
       </c>
-      <c r="CS14" s="6" t="s">
-        <v>96</v>
+      <c r="CS14" s="6">
+        <v>0</v>
       </c>
       <c r="CT14" s="12">
         <v>2891.17</v>
@@ -5080,8 +5078,8 @@
       <c r="R15" s="5">
         <v>11.04</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>96</v>
+      <c r="S15" s="6">
+        <v>0</v>
       </c>
       <c r="T15" s="5">
         <v>12.5</v>
@@ -5128,11 +5126,11 @@
       <c r="AH15" s="5">
         <v>0</v>
       </c>
-      <c r="AI15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>96</v>
+      <c r="AI15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0</v>
       </c>
       <c r="AK15" s="6">
         <v>0</v>
@@ -5140,11 +5138,11 @@
       <c r="AL15" s="8">
         <v>2660.68</v>
       </c>
-      <c r="AM15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN15" s="5" t="s">
-        <v>96</v>
+      <c r="AM15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
       </c>
       <c r="AO15" s="6">
         <v>0</v>
@@ -5152,17 +5150,17 @@
       <c r="AP15" s="5">
         <v>4.8899999999999997</v>
       </c>
-      <c r="AQ15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT15" s="5" t="s">
-        <v>96</v>
+      <c r="AQ15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>0</v>
       </c>
       <c r="AU15" s="6">
         <v>0</v>
@@ -5206,8 +5204,8 @@
       <c r="BH15" s="5">
         <v>42.37</v>
       </c>
-      <c r="BI15" s="6" t="s">
-        <v>96</v>
+      <c r="BI15" s="6">
+        <v>0</v>
       </c>
       <c r="BJ15" s="5">
         <v>17.940000000000001</v>
@@ -5281,11 +5279,11 @@
       <c r="CG15" s="6">
         <v>600</v>
       </c>
-      <c r="CH15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI15" s="6" t="s">
-        <v>96</v>
+      <c r="CH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="6">
+        <v>0</v>
       </c>
       <c r="CJ15" s="5">
         <v>0</v>
@@ -5314,8 +5312,8 @@
       <c r="CR15" s="9">
         <v>1200.6199999999999</v>
       </c>
-      <c r="CS15" s="6" t="s">
-        <v>96</v>
+      <c r="CS15" s="6">
+        <v>0</v>
       </c>
       <c r="CT15" s="12">
         <v>2451.71</v>
@@ -5376,8 +5374,8 @@
       <c r="R16" s="17">
         <v>4.46</v>
       </c>
-      <c r="S16" s="18" t="s">
-        <v>96</v>
+      <c r="S16" s="18">
+        <v>0</v>
       </c>
       <c r="T16" s="17">
         <v>22.91</v>
@@ -5424,11 +5422,11 @@
       <c r="AH16" s="17">
         <v>0</v>
       </c>
-      <c r="AI16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ16" s="17" t="s">
-        <v>96</v>
+      <c r="AI16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="17">
+        <v>0</v>
       </c>
       <c r="AK16" s="18">
         <v>0</v>
@@ -5436,11 +5434,11 @@
       <c r="AL16" s="20">
         <v>1567.18</v>
       </c>
-      <c r="AM16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN16" s="17" t="s">
-        <v>96</v>
+      <c r="AM16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="17">
+        <v>0</v>
       </c>
       <c r="AO16" s="18">
         <v>0</v>
@@ -5448,17 +5446,17 @@
       <c r="AP16" s="17">
         <v>1.39</v>
       </c>
-      <c r="AQ16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT16" s="17" t="s">
-        <v>96</v>
+      <c r="AQ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="17">
+        <v>0</v>
       </c>
       <c r="AU16" s="18">
         <v>0</v>
@@ -5502,8 +5500,8 @@
       <c r="BH16" s="17">
         <v>12.12</v>
       </c>
-      <c r="BI16" s="18" t="s">
-        <v>96</v>
+      <c r="BI16" s="18">
+        <v>0</v>
       </c>
       <c r="BJ16" s="17">
         <v>7.59</v>
@@ -5577,11 +5575,11 @@
       <c r="CG16" s="18">
         <v>600</v>
       </c>
-      <c r="CH16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="CI16" s="18" t="s">
-        <v>96</v>
+      <c r="CH16" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="18">
+        <v>0</v>
       </c>
       <c r="CJ16" s="17">
         <v>0</v>
@@ -5610,8 +5608,8 @@
       <c r="CR16" s="19">
         <v>893.12</v>
       </c>
-      <c r="CS16" s="18" t="s">
-        <v>96</v>
+      <c r="CS16" s="18">
+        <v>0</v>
       </c>
       <c r="CT16" s="23">
         <v>2031.11</v>
